--- a/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
+++ b/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab Zeynalli\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab Zeynalli\OneDrive\Documents\SENECA\2semester\SFT221\SFT221_GROUP_PROJECT\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A1D73-B3B7-4567-9540-44DE560C661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A1C097-7A4F-4B3A-A750-2DEE081C1685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="36" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t>Pass / Fail</t>
-  </si>
-  <si>
     <t>R001</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>Error handling and acceptance of correct input</t>
+  </si>
+  <si>
+    <t>Pass OR Fail</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -891,29 +891,29 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="43.2" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -937,7 +937,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -967,13 +967,13 @@
     </row>
     <row r="8" spans="1:13" ht="43.2" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>0.25</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -997,7 +997,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>1</v>
@@ -1070,12 +1070,12 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="b">
         <v>1</v>
@@ -1083,12 +1083,12 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
@@ -1096,12 +1096,12 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
@@ -1109,12 +1109,12 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="b">
         <v>0</v>
@@ -1122,12 +1122,12 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="b">
         <v>0</v>
@@ -1135,12 +1135,12 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="b">
         <v>1</v>
@@ -1148,12 +1148,12 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="b">
         <v>0</v>
@@ -1161,12 +1161,12 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="b">
         <v>0</v>
@@ -1174,12 +1174,12 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>0</v>
@@ -1190,136 +1190,136 @@
     </row>
     <row r="26" spans="2:6" ht="28.8" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
+++ b/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab Zeynalli\OneDrive\Documents\SENECA\2semester\SFT221\SFT221_GROUP_PROJECT\Documents\Testing\TestsDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole Chan\Desktop\Seneca-Summer-2023\SFT221\Milestone Project\toGit\SFT221_GROUP_PROJECT\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A1C097-7A4F-4B3A-A750-2DEE081C1685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEA5A4-7FF1-4F2F-A92D-7C05338C8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>1</v>

--- a/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
+++ b/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole Chan\Desktop\Seneca-Summer-2023\SFT221\Milestone Project\toGit\SFT221_GROUP_PROJECT\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACEA5A4-7FF1-4F2F-A92D-7C05338C8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A56F31-4BD9-4A0D-88C2-0F7D37A02998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t xml:space="preserve">Requirements </t>
   </si>
@@ -425,6 +425,32 @@
   </si>
   <si>
     <t>Pass OR Fail</t>
+  </si>
+  <si>
+    <t>T031</t>
+  </si>
+  <si>
+    <t>Display expected header</t>
+  </si>
+  <si>
+    <t>Display output to the console with header()</t>
+  </si>
+  <si>
+    <t>================= 
+Seneca Deliveries 
+===================</t>
+  </si>
+  <si>
+    <t>T032</t>
+  </si>
+  <si>
+    <t>Display expected footer</t>
+  </si>
+  <si>
+    <t>Display output to the console with footer()</t>
+  </si>
+  <si>
+    <t>Thanks for shipping with Seneca!&lt;newline&gt;</t>
   </si>
 </sst>
 </file>
@@ -523,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,7 +588,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -840,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -909,10 +944,10 @@
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="2">
@@ -926,8 +961,8 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="2">
         <v>1000</v>
       </c>
@@ -939,8 +974,8 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2">
         <v>-0.1</v>
       </c>
@@ -952,8 +987,8 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="2">
         <v>1000.1</v>
       </c>
@@ -969,10 +1004,10 @@
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="2">
@@ -986,8 +1021,8 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
@@ -999,8 +1034,8 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -1012,8 +1047,8 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="2">
         <v>0.24</v>
       </c>
@@ -1025,8 +1060,8 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2">
         <v>-0.5</v>
       </c>
@@ -1038,8 +1073,8 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1055,10 +1090,10 @@
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1072,8 +1107,8 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1085,8 +1120,8 @@
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1098,8 +1133,8 @@
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1111,8 +1146,8 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1124,8 +1159,8 @@
       <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1137,8 +1172,8 @@
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1150,8 +1185,8 @@
       <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1163,8 +1198,8 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1176,8 +1211,8 @@
       <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1192,10 +1227,10 @@
       <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1209,8 +1244,8 @@
       <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1222,8 +1257,8 @@
       <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1235,8 +1270,8 @@
       <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1248,8 +1283,8 @@
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1261,8 +1296,8 @@
       <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="9" t="s">
         <v>66</v>
       </c>
@@ -1274,8 +1309,8 @@
       <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1287,8 +1322,8 @@
       <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1300,8 +1335,8 @@
       <c r="B34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1313,13 +1348,51 @@
       <c r="B35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:6" ht="43.2">
+      <c r="B37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="6"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" ht="28.8">
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
+++ b/Documents/Testing/TestsDocuments/ms3-traceability-matrix-group5-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole Chan\Desktop\Seneca-Summer-2023\SFT221\Milestone Project\toGit\SFT221_GROUP_PROJECT\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A56F31-4BD9-4A0D-88C2-0F7D37A02998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE419BC-72E9-4CCD-9DC4-EC9BB369ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t xml:space="preserve">Requirements </t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>Thanks for shipping with Seneca!&lt;newline&gt;</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -587,6 +590,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -944,10 +947,10 @@
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="2">
@@ -961,8 +964,8 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2">
         <v>1000</v>
       </c>
@@ -974,8 +977,8 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2">
         <v>-0.1</v>
       </c>
@@ -987,8 +990,8 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="2">
         <v>1000.1</v>
       </c>
@@ -1004,10 +1007,10 @@
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="2">
@@ -1021,8 +1024,8 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
@@ -1034,8 +1037,8 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -1047,8 +1050,8 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2">
         <v>0.24</v>
       </c>
@@ -1060,8 +1063,8 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2">
         <v>-0.5</v>
       </c>
@@ -1073,8 +1076,8 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1090,10 +1093,10 @@
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1107,8 +1110,8 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1120,8 +1123,8 @@
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1133,8 +1136,8 @@
       <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1146,8 +1149,8 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1159,8 +1162,8 @@
       <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1172,8 +1175,8 @@
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1185,8 +1188,8 @@
       <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1198,8 +1201,8 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1211,8 +1214,8 @@
       <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1227,10 +1230,10 @@
       <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1244,8 +1247,8 @@
       <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1257,8 +1260,8 @@
       <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1270,8 +1273,8 @@
       <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1283,8 +1286,8 @@
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1296,8 +1299,8 @@
       <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="9" t="s">
         <v>66</v>
       </c>
@@ -1309,8 +1312,8 @@
       <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1322,8 +1325,8 @@
       <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1335,8 +1338,8 @@
       <c r="B34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1348,8 +1351,8 @@
       <c r="B35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="10" t="s">
         <v>73</v>
       </c>
@@ -1373,15 +1376,18 @@
       <c r="D37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="6"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="2:6" ht="28.8">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
@@ -1391,7 +1397,10 @@
       <c r="D39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>83</v>
       </c>
     </row>
